--- a/express/数据结构.xlsx
+++ b/express/数据结构.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EricWang/MyApps/exproj/express/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="665"/>
+    <workbookView xWindow="600" yWindow="1680" windowWidth="22260" windowHeight="12640" tabRatio="665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sysuser-schema" sheetId="1" r:id="rId1"/>
@@ -13,9 +18,12 @@
     <sheet name="customer-schema" sheetId="4" r:id="rId4"/>
     <sheet name="location-schema" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,13 +532,36 @@
   </si>
   <si>
     <t>sysadmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联location</t>
+    <rPh sb="0" eb="1">
+      <t>guan lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schema.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +603,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -583,25 +620,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -609,40 +646,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,23 +687,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -683,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,7 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1042,14 +1081,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,10 +1102,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1133,7 +1172,7 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1328,10 +1367,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,44 +1446,44 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1456,11 +1495,11 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1487,11 +1526,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1515,11 +1554,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1533,11 +1572,11 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1551,11 +1590,11 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1" t="s">
         <v>122</v>
       </c>
@@ -1569,13 +1608,13 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1587,11 +1626,11 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1603,11 +1642,11 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1619,11 +1658,11 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1635,11 +1674,11 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1651,11 +1690,11 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1667,11 +1706,11 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1683,13 +1722,15 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1697,13 +1738,15 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1711,7 +1754,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
@@ -1727,7 +1770,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>105</v>
       </c>
@@ -1743,11 +1786,11 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1759,11 +1802,11 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1775,11 +1818,11 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1791,11 +1834,11 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1839,18 +1882,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,58 +1944,78 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1964,15 +2027,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,6 +2139,14 @@
       </c>
       <c r="C12" s="1"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/express/数据结构.xlsx
+++ b/express/数据结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sysuser-schema" sheetId="1" state="visible" r:id="rId2"/>
@@ -360,6 +360,7 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,10 +474,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,18 +580,18 @@
   </sheetPr>
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,13 +798,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -818,13 +815,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -881,10 +878,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,14 +970,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,11 +1001,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1020,11 +1017,11 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1051,11 +1048,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1079,11 +1076,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1097,11 +1094,11 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1115,11 +1112,11 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1133,13 +1130,13 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1151,11 +1148,11 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1167,11 +1164,11 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1183,11 +1180,11 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1199,11 +1196,11 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,11 +1212,11 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>75</v>
       </c>
@@ -1231,11 +1228,11 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1247,11 +1244,11 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,11 +1258,11 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1275,8 +1272,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1291,8 +1288,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1307,11 +1304,11 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1323,11 +1320,11 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1339,11 +1336,11 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1355,11 +1352,11 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1412,17 +1409,17 @@
   </sheetPr>
   <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,8 +1549,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
